--- a/src/test/resources/Ot-addActividad_multiple_rules.xlsx
+++ b/src/test/resources/Ot-addActividad_multiple_rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ar00062451\Documents\drools-poc\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D8A7A0-2117-437C-A7B0-E08E5B36BCA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8ADA8B-6715-4D36-AAE0-0E9D5F99B14B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>RuleSet</t>
   </si>
@@ -180,9 +180,6 @@
     <t>$ot.getCodOT()  == ($param)</t>
   </si>
   <si>
-    <t>"xxxx"</t>
-  </si>
-  <si>
     <t>$ot.setValorMaximo($param);</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>com.example.cargaUnificada.resource.rule.model.Ot, com.example.cargaUnificada.resource.rule.model.Actividad</t>
+  </si>
+  <si>
+    <t>"a50394de-2e7c-4db6-9b49-0f20397dc156","a50394de-2e7c-4db6-9b49-0f20397dc157"</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:J996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1061,7 +1061,7 @@
     <col min="1" max="1" width="23.42578125" customWidth="1"/>
     <col min="2" max="2" width="45.7109375" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="4" max="4" width="73.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="40.140625" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" customWidth="1"/>
@@ -1087,7 +1087,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="24" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="24" t="s">
@@ -1232,7 +1232,9 @@
         <v>21</v>
       </c>
       <c r="C12" s="25"/>
-      <c r="D12" s="24"/>
+      <c r="D12" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="E12" s="24" t="s">
         <v>24</v>
       </c>
@@ -1314,7 +1316,7 @@
         <v>39</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>12</v>
@@ -1355,10 +1357,10 @@
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" s="34"/>
     </row>
@@ -1374,10 +1376,10 @@
       </c>
       <c r="D21" s="47"/>
       <c r="E21" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>38</v>

--- a/src/test/resources/Ot-addActividad_multiple_rules.xlsx
+++ b/src/test/resources/Ot-addActividad_multiple_rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ar00062451\Documents\drools-poc\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2603581C-FDC5-420B-BE89-3E3141621D78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EE85E7-5547-4F7C-B05A-13ECD50150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>RuleSet</t>
   </si>
@@ -86,18 +86,6 @@
   </si>
   <si>
     <t>"CONTAR-2"</t>
-  </si>
-  <si>
-    <t>1000.01</t>
-  </si>
-  <si>
-    <t>10000.02</t>
-  </si>
-  <si>
-    <t>100.03</t>
-  </si>
-  <si>
-    <t>10000000.04</t>
   </si>
   <si>
     <t>"a50394de-2e7c-4db6-9b49-0f20397dc156","a50394de-2e7c-4db6-9b49-0f20397dc157"</t>
@@ -486,7 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -568,9 +556,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -615,6 +600,12 @@
     </xf>
     <xf numFmtId="1" fontId="5" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="9" fillId="11" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1023,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G935"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="D6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1045,25 +1036,25 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49" t="s">
-        <v>37</v>
+      <c r="B2" s="50" t="s">
+        <v>33</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>48</v>
+      <c r="B3" s="51" t="s">
+        <v>44</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1079,13 +1070,13 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>23</v>
+      <c r="B5" s="51" t="s">
+        <v>19</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
     </row>
     <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
@@ -1096,14 +1087,14 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
-        <v>36</v>
+      <c r="A7" s="52" t="s">
+        <v>32</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
@@ -1127,30 +1118,30 @@
     </row>
     <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>42</v>
+      <c r="C10" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1158,19 +1149,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1178,15 +1169,15 @@
         <v>9</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" s="20"/>
-      <c r="D12" s="43" t="s">
-        <v>22</v>
+      <c r="D12" s="42" t="s">
+        <v>18</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="43" t="s">
-        <v>44</v>
+      <c r="F12" s="42" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1194,15 +1185,15 @@
         <v>10</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C13" s="20"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43" t="s">
-        <v>43</v>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42" t="s">
+        <v>39</v>
       </c>
-      <c r="F13" s="43" t="s">
-        <v>45</v>
+      <c r="F13" s="42" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1210,7 +1201,7 @@
       <c r="B14" s="3"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="44"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1222,69 +1213,69 @@
       <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
-        <v>24</v>
+      <c r="A16" s="48" t="s">
+        <v>20</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="36" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24"/>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
     </row>
     <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="F19" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>39</v>
-      </c>
       <c r="G19" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1292,7 +1283,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>11</v>
@@ -1307,25 +1298,25 @@
         <v>14</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>30</v>
+      <c r="B21" s="29" t="s">
+        <v>26</v>
       </c>
-      <c r="C21" s="40" t="s">
-        <v>32</v>
+      <c r="C21" s="39" t="s">
+        <v>28</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="29" t="s">
-        <v>18</v>
+      <c r="D21" s="40"/>
+      <c r="E21" s="44">
+        <v>1500.12</v>
       </c>
-      <c r="F21" s="29" t="s">
-        <v>19</v>
+      <c r="F21" s="44">
+        <v>32000.12</v>
       </c>
       <c r="G21" s="20"/>
     </row>
@@ -1334,17 +1325,17 @@
         <v>16</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="23" t="s">
-        <v>20</v>
+      <c r="D22" s="41"/>
+      <c r="E22" s="45">
+        <v>101.12</v>
       </c>
-      <c r="F22" s="23" t="s">
-        <v>21</v>
+      <c r="F22" s="45">
+        <v>751.12300000000005</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>17</v>
@@ -8664,6 +8655,12 @@
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="B9:D9"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Por favor ingrese un valor entre 0 y 100000000." prompt="Por favor ingrese un valor entre 0 y 100000000." sqref="E21:F22" xr:uid="{34AB6052-0E19-4422-A4C3-6DCEC5B0157F}">
+      <formula1>0</formula1>
+      <formula2>100000000</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>

--- a/src/test/resources/Ot-addActividad_multiple_rules.xlsx
+++ b/src/test/resources/Ot-addActividad_multiple_rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ar00062451\Documents\drools-poc\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EE85E7-5547-4F7C-B05A-13ECD50150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648F5E18-59C2-4B13-AADC-AEFF52E89584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>RuleSet</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>REC-Pesos</t>
-  </si>
-  <si>
-    <t>"CONTAR-2"</t>
   </si>
   <si>
     <t>"a50394de-2e7c-4db6-9b49-0f20397dc156","a50394de-2e7c-4db6-9b49-0f20397dc157"</t>
@@ -154,12 +151,6 @@
     <t>"SAFEBAG","LecturaPrecintos"</t>
   </si>
   <si>
-    <t>"Coleta","LecturaRemito"</t>
-  </si>
-  <si>
-    <t>"Coleta","SolicitudMotivoSinRemesa"</t>
-  </si>
-  <si>
     <t>$ot.remover_actividades(Arrays.asList($param));</t>
   </si>
   <si>
@@ -167,6 +158,12 @@
   </si>
   <si>
     <t>com.example.cargaUnificada.resource.rule.model.Ot, com.example.cargaUnificada.resource.rule.model.Actividad, java.util.Arrays</t>
+  </si>
+  <si>
+    <t>"SolicitudMotivoSinRemesa"</t>
+  </si>
+  <si>
+    <t>"Coleta","CONTAR-2"</t>
   </si>
 </sst>
 </file>
@@ -1012,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G935"/>
+  <dimension ref="A2:F935"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1025,38 +1022,37 @@
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="73.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="40.140625" customWidth="1"/>
-    <col min="7" max="7" width="52" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
-    <col min="10" max="16" width="11.42578125" customWidth="1"/>
-    <col min="17" max="27" width="10" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="15" width="11.42578125" customWidth="1"/>
+    <col min="16" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
       <c r="E2" s="50"/>
       <c r="F2" s="50"/>
     </row>
-    <row r="3" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="51"/>
       <c r="E3" s="51"/>
       <c r="F3" s="51"/>
     </row>
-    <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1066,19 +1062,19 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="51"/>
       <c r="D5" s="51"/>
       <c r="E5" s="51"/>
       <c r="F5" s="51"/>
     </row>
-    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
@@ -1086,9 +1082,9 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
@@ -1096,7 +1092,7 @@
       <c r="E7" s="52"/>
       <c r="F7" s="52"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
@@ -1116,7 +1112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="53" t="s">
         <v>7</v>
@@ -1126,61 +1122,61 @@
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="E10" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="F11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="42" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
@@ -1190,13 +1186,13 @@
       <c r="C13" s="20"/>
       <c r="D13" s="42"/>
       <c r="E13" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
       <c r="B14" s="3"/>
       <c r="C14" s="22"/>
@@ -1204,7 +1200,7 @@
       <c r="E14" s="43"/>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21"/>
       <c r="B15" s="3"/>
       <c r="C15" s="22"/>
@@ -1212,18 +1208,17 @@
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="49"/>
       <c r="C16" s="49"/>
       <c r="D16" s="49"/>
       <c r="E16" s="49"/>
       <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>4</v>
       </c>
@@ -1242,11 +1237,8 @@
       <c r="F17" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24"/>
       <c r="B18" s="46" t="s">
         <v>7</v>
@@ -1255,35 +1247,31 @@
       <c r="D18" s="47"/>
       <c r="E18" s="34"/>
       <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-    </row>
-    <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="38"/>
       <c r="B19" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>31</v>
+      <c r="E19" s="35" t="s">
+        <v>33</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="F19" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>11</v>
@@ -1297,19 +1285,16 @@
       <c r="F20" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="40"/>
       <c r="E21" s="44">
@@ -1318,17 +1303,16 @@
       <c r="F21" s="44">
         <v>32000.12</v>
       </c>
-      <c r="G21" s="20"/>
-    </row>
-    <row r="22" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="45">
@@ -1337,11 +1321,8 @@
       <c r="F22" s="45">
         <v>751.12300000000005</v>
       </c>
-      <c r="G22" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
       <c r="B23" s="3"/>
       <c r="C23" s="22"/>
@@ -1349,7 +1330,7 @@
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
     </row>
-    <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
       <c r="B24" s="3"/>
       <c r="C24" s="22"/>
@@ -1357,7 +1338,7 @@
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
     </row>
-    <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
       <c r="B25" s="3"/>
       <c r="C25" s="22"/>
@@ -1365,7 +1346,7 @@
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
     </row>
-    <row r="26" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
       <c r="B26" s="3"/>
       <c r="C26" s="22"/>
@@ -1373,7 +1354,7 @@
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
     </row>
-    <row r="27" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
       <c r="B27" s="3"/>
       <c r="C27" s="22"/>
@@ -1381,7 +1362,7 @@
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
     </row>
-    <row r="28" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
       <c r="B28" s="3"/>
       <c r="C28" s="22"/>
@@ -1389,7 +1370,7 @@
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
     </row>
-    <row r="29" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
       <c r="B29" s="3"/>
       <c r="C29" s="22"/>
@@ -1397,7 +1378,7 @@
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
       <c r="B30" s="3"/>
       <c r="C30" s="22"/>
@@ -1405,7 +1386,7 @@
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
       <c r="B31" s="3"/>
       <c r="C31" s="22"/>
@@ -1413,7 +1394,7 @@
       <c r="E31" s="22"/>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
       <c r="B32" s="3"/>
       <c r="C32" s="22"/>
@@ -8648,7 +8629,7 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A16:F16"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B5:F5"/>

--- a/src/test/resources/Ot-addActividad_multiple_rules.xlsx
+++ b/src/test/resources/Ot-addActividad_multiple_rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ar00062451\Documents\drools-poc\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648F5E18-59C2-4B13-AADC-AEFF52E89584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642AEFBF-C272-4C93-AC48-24AA94880FF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F935"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/Ot-addActividad_multiple_rules.xlsx
+++ b/src/test/resources/Ot-addActividad_multiple_rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ar00062451\Documents\drools-poc\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642AEFBF-C272-4C93-AC48-24AA94880FF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C7EDF3-0852-4334-933D-16B34E211885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>RuleSet</t>
   </si>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F935"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1028,7 +1028,7 @@
     <col min="16" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1040,7 @@
       <c r="E2" s="50"/>
       <c r="F2" s="50"/>
     </row>
-    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1052,7 +1052,7 @@
       <c r="E3" s="51"/>
       <c r="F3" s="51"/>
     </row>
-    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1062,7 +1062,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -8648,14 +8648,34 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{55381A30-47DF-4E44-9DB4-3A1E006B8882}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>B21:B22 B12:B13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D069245B-0CD2-466B-A47D-FA8474A2C764}">
+          <x14:formula1>
+            <xm:f>Sheet2!$B$1:$B$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>C21:C22</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A1000"/>
+  <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8663,22 +8683,36 @@
     <col min="11" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/Ot-addActividad_multiple_rules.xlsx
+++ b/src/test/resources/Ot-addActividad_multiple_rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ar00062451\Documents\drools-poc\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C7EDF3-0852-4334-933D-16B34E211885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9260A6-2945-483A-845D-53CF8451EBC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1012,7 +1012,7 @@
   <dimension ref="A2:F935"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8627,6 +8627,11 @@
       <c r="F935" s="22"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <protectedRanges>
+    <protectedRange sqref="B21:F22" name="Rango2"/>
+    <protectedRange sqref="B12:F13" name="Rango1"/>
+  </protectedRanges>
   <mergeCells count="7">
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="A16:F16"/>

--- a/src/test/resources/Ot-addActividad_multiple_rules.xlsx
+++ b/src/test/resources/Ot-addActividad_multiple_rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ar00062451\Documents\drools-poc\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9260A6-2945-483A-845D-53CF8451EBC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A238CDE6-146A-4546-9006-C5721097A022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4365" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividad" sheetId="1" r:id="rId1"/>
@@ -121,9 +121,6 @@
     <t>Entrega de Otros</t>
   </si>
   <si>
-    <t>producto</t>
-  </si>
-  <si>
     <t>entidad</t>
   </si>
   <si>
@@ -157,13 +154,16 @@
     <t>$ot.agregar_actividades(Arrays.asList($param));</t>
   </si>
   <si>
-    <t>com.example.cargaUnificada.resource.rule.model.Ot, com.example.cargaUnificada.resource.rule.model.Actividad, java.util.Arrays</t>
-  </si>
-  <si>
     <t>"SolicitudMotivoSinRemesa"</t>
   </si>
   <si>
     <t>"Coleta","CONTAR-2"</t>
+  </si>
+  <si>
+    <t>com.example.cargaUnificada.resource.rule.model.Ot, com.example.cargaUnificada.resource.rule.model.Actividad, com.example.cargaUnificada.resource.rule.model.ServicioRuta, java.util.Arrays</t>
+  </si>
+  <si>
+    <t>servicio_ruta.codigo_producto</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1012,7 @@
   <dimension ref="A2:F935"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1028,31 +1028,31 @@
     <col min="16" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
       <c r="E2" s="50"/>
       <c r="F2" s="50"/>
     </row>
-    <row r="3" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="51"/>
       <c r="E3" s="51"/>
       <c r="F3" s="51"/>
     </row>
-    <row r="4" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1062,7 +1062,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
@@ -1125,19 +1125,19 @@
     <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="E10" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1186,10 +1186,10 @@
       <c r="C13" s="20"/>
       <c r="D13" s="42"/>
       <c r="E13" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1251,19 +1251,19 @@
     <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="38"/>
       <c r="B19" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>30</v>
-      </c>
       <c r="E19" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -8627,7 +8627,6 @@
       <c r="F935" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="B21:F22" name="Rango2"/>
     <protectedRange sqref="B12:F13" name="Rango1"/>

--- a/src/test/resources/Ot-addActividad_multiple_rules.xlsx
+++ b/src/test/resources/Ot-addActividad_multiple_rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ar00062451\Documents\drools-poc\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A238CDE6-146A-4546-9006-C5721097A022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2504106-7A02-45FB-9C1D-F2F62CF4FF01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4365" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividad" sheetId="1" r:id="rId1"/>
@@ -85,9 +85,6 @@
     <t>REC-Pesos</t>
   </si>
   <si>
-    <t>"a50394de-2e7c-4db6-9b49-0f20397dc156","a50394de-2e7c-4db6-9b49-0f20397dc157"</t>
-  </si>
-  <si>
     <t>Prueba de concepto</t>
   </si>
   <si>
@@ -139,31 +136,34 @@
     <t>codigo_tipo</t>
   </si>
   <si>
-    <t>id not in ($param)</t>
-  </si>
-  <si>
     <t>codigo</t>
-  </si>
-  <si>
-    <t>"SAFEBAG","LecturaPrecintos"</t>
-  </si>
-  <si>
-    <t>$ot.remover_actividades(Arrays.asList($param));</t>
-  </si>
-  <si>
-    <t>$ot.agregar_actividades(Arrays.asList($param));</t>
-  </si>
-  <si>
-    <t>"SolicitudMotivoSinRemesa"</t>
-  </si>
-  <si>
-    <t>"Coleta","CONTAR-2"</t>
   </si>
   <si>
     <t>com.example.cargaUnificada.resource.rule.model.Ot, com.example.cargaUnificada.resource.rule.model.Actividad, com.example.cargaUnificada.resource.rule.model.ServicioRuta, java.util.Arrays</t>
   </si>
   <si>
     <t>servicio_ruta.codigo_producto</t>
+  </si>
+  <si>
+    <t>a50394de-2e7c-4db6-9b49-0f20397dc156,a50394de-2e7c-4db6-9b49-0f20397dc157</t>
+  </si>
+  <si>
+    <t>SAFEBAG,LecturaPrecintos</t>
+  </si>
+  <si>
+    <t>Coleta,CONTAR-2</t>
+  </si>
+  <si>
+    <t>SolicitudMotivoSinRemesa</t>
+  </si>
+  <si>
+    <t>$ot.agregar_actividades(Arrays.asList("$param".split(",")));</t>
+  </si>
+  <si>
+    <t>id not in (Arrays.asList("$param".split(",")))</t>
+  </si>
+  <si>
+    <t>$ot.remover_actividades(Arrays.asList("$param".split(",")));</t>
   </si>
 </sst>
 </file>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F935"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1021,7 +1021,8 @@
     <col min="2" max="2" width="45.7109375" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="73.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="40.140625" customWidth="1"/>
+    <col min="5" max="5" width="56" customWidth="1"/>
+    <col min="6" max="6" width="54.140625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="20.140625" customWidth="1"/>
     <col min="9" max="15" width="11.42578125" customWidth="1"/>
@@ -1033,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
@@ -1045,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="51"/>
@@ -1067,7 +1068,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="51"/>
       <c r="D5" s="51"/>
@@ -1084,7 +1085,7 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
@@ -1125,19 +1126,19 @@
     <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>36</v>
-      </c>
       <c r="D10" s="14" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1145,19 +1146,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="F11" s="17" t="s">
         <v>22</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1165,15 +1166,15 @@
         <v>9</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="42" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1181,12 +1182,12 @@
         <v>10</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="42"/>
       <c r="E13" s="42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="42" t="s">
         <v>40</v>
@@ -1210,7 +1211,7 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="49"/>
       <c r="C16" s="49"/>
@@ -1251,19 +1252,19 @@
     <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="38"/>
       <c r="B19" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1271,7 +1272,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>11</v>
@@ -1291,10 +1292,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="40"/>
       <c r="E21" s="44">
@@ -1309,10 +1310,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="45">
@@ -8689,18 +8690,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B2" s="23" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/Ot-addActividad_multiple_rules.xlsx
+++ b/src/test/resources/Ot-addActividad_multiple_rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ar00062451\Documents\drools-poc\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2504106-7A02-45FB-9C1D-F2F62CF4FF01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB13F756-4CEF-4385-8506-017236FC3EA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4365" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividad" sheetId="1" r:id="rId1"/>
@@ -145,25 +145,25 @@
     <t>servicio_ruta.codigo_producto</t>
   </si>
   <si>
-    <t>a50394de-2e7c-4db6-9b49-0f20397dc156,a50394de-2e7c-4db6-9b49-0f20397dc157</t>
+    <t>$ot.agregar_actividades(Arrays.asList($param));</t>
   </si>
   <si>
-    <t>SAFEBAG,LecturaPrecintos</t>
+    <t>$ot.remover_actividades(Arrays.asList($param));</t>
   </si>
   <si>
-    <t>Coleta,CONTAR-2</t>
+    <t>id not in (Arrays.asList($param))</t>
   </si>
   <si>
-    <t>SolicitudMotivoSinRemesa</t>
+    <t>"SAFEBAG","LecturaPrecintos"</t>
   </si>
   <si>
-    <t>$ot.agregar_actividades(Arrays.asList("$param".split(",")));</t>
+    <t>"Coleta","CONTAR-2"</t>
   </si>
   <si>
-    <t>id not in (Arrays.asList("$param".split(",")))</t>
+    <t>"SolicitudMotivoSinRemesa"</t>
   </si>
   <si>
-    <t>$ot.remover_actividades(Arrays.asList("$param".split(",")));</t>
+    <t>"a50394de-2e7c-4db6-9b49-0f20397dc156","a50394de-2e7c-4db6-9b49-0f20397dc157"</t>
   </si>
 </sst>
 </file>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F935"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1132,13 +1132,13 @@
         <v>34</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1170,11 +1170,11 @@
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="42" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1187,10 +1187,10 @@
       <c r="C13" s="20"/>
       <c r="D13" s="42"/>
       <c r="E13" s="42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
